--- a/src/main/resources/template/01_Template_foreach.xlsx
+++ b/src/main/resources/template/01_Template_foreach.xlsx
@@ -65,7 +65,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#{beginTime}&lt;/poi:foreach&gt;</t>
+    <t>#{#fmtDate(beginTime,'yyyy-MM-dd')}&lt;/poi:foreach&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -556,7 +556,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
